--- a/data/IEEE9/Market Data/ieee9_market_data_2045.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2045.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C375E6-0898-4F67-AAAE-B5199D44E6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859A5670-3FF5-48AA-AAC0-6FA890EFAAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="4020" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12645" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,23 +1325,24 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -1355,7 +1356,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>1.1327955750864145</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1403,9 +1404,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>48.359043100439031</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>47.248903436854349</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>49.469182764023721</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1811,7 +1812,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1851,9 +1852,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>54.504931093439104</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>49.843477301958522</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2233,7 +2234,7 @@
         <v>59.166384884919708</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2259,7 +2260,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2299,9 +2300,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>43.20482323379585</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>48.143811941172615</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v>50.975800878888649</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2707,7 +2708,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2747,9 +2748,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>42.564793733872023</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3028,7 +3029,7 @@
         <v>47.653405856791451</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>47.584494125973691</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3155,7 +3156,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/data/IEEE9/Market Data/ieee9_market_data_2045.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2045.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859A5670-3FF5-48AA-AAC0-6FA890EFAAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B53E96-E634-47BE-8779-E5CB7665D68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12645" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.0000000000000001E-3</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="5">
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -1378,7 +1377,7 @@
       </c>
       <c r="B6" s="1">
         <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
-        <v>1.1327955750864145</v>
+        <v>1.2824319950172343</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1489,99 +1488,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
-        <v>49.51449458702718</v>
+        <v>56.055102502203312</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
-        <v>46.201067529899412</v>
+        <v>52.303988916777897</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
-        <v>44.238499196062193</v>
+        <v>50.082175485410538</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
-        <v>41.48580594860222</v>
+        <v>46.965865737518662</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
-        <v>42.723385114384129</v>
+        <v>48.366922692074994</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
-        <v>46.155755706895967</v>
+        <v>52.252691636977218</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
-        <v>55.841157873884804</v>
+        <v>63.217485194374568</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
-        <v>58.440923718708127</v>
+        <v>66.160666622939118</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
-        <v>61.454159948437983</v>
+        <v>69.571935729684952</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
-        <v>60.986881773714835</v>
+        <v>69.042932531740348</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
-        <v>59.811606364562692</v>
+        <v>67.712409336909971</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
-        <v>59.51991150397793</v>
+        <v>67.382183098193025</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
-        <v>57.214672508677069</v>
+        <v>64.772433988332949</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
-        <v>56.407555661428013</v>
+        <v>63.858701191883185</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
-        <v>55.300247986781045</v>
+        <v>62.60512391675384</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
-        <v>55.410695555351964</v>
+        <v>62.730161036268015</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
-        <v>56.265956214542207</v>
+        <v>63.698397192506029</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
-        <v>59.046969351379353</v>
+        <v>66.846767740273336</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
-        <v>61.873294311219965</v>
+        <v>70.046435567841343</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
-        <v>62.349068452756264</v>
+        <v>70.585057005748581</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
-        <v>60.910418072396503</v>
+        <v>68.956368372076682</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
-        <v>57.084401017542142</v>
+        <v>64.62495430890597</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
-        <v>51.52237474386785</v>
+        <v>58.328213213371356</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
-        <v>48.359043100439031</v>
+        <v>54.747021867285724</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -1590,99 +1589,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
-        <v>46.240715375027442</v>
+        <v>52.348874036603505</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
-        <v>43.646613508079554</v>
+        <v>49.412104768014039</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
-        <v>40.820288548238942</v>
+        <v>46.212436940446032</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
-        <v>38.996487672349815</v>
+        <v>44.147721428468287</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
-        <v>41.165791198640306</v>
+        <v>46.603578698926299</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
-        <v>43.363414614307949</v>
+        <v>49.091496769259727</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
-        <v>50.069564418819525</v>
+        <v>56.683494179761759</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
-        <v>52.301171701739761</v>
+        <v>59.20988520994571</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
-        <v>54.917929480189379</v>
+        <v>62.172303118435522</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
-        <v>55.286088042092459</v>
+        <v>62.589093516816121</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
-        <v>53.694510259096056</v>
+        <v>60.78727656381691</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
-        <v>52.590034573386788</v>
+        <v>59.5369053686751</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
-        <v>50.981464856764077</v>
+        <v>57.715851935750621</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
-        <v>50.44338695859804</v>
+        <v>57.106696738117442</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
-        <v>48.194787742051503</v>
+        <v>54.561069228008236</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
-        <v>47.815301224397558</v>
+        <v>54.131454509677461</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
-        <v>48.800833374722735</v>
+        <v>55.247170345342447</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
-        <v>53.807789816604689</v>
+        <v>60.915519763318628</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
-        <v>56.333923949047396</v>
+        <v>63.775343112207068</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
-        <v>57.217504497614804</v>
+        <v>64.775640068320513</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
-        <v>57.534687258638989</v>
+        <v>65.134721026925334</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
-        <v>54.980233236819124</v>
+        <v>62.242836878161462</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
-        <v>49.792029502923349</v>
+        <v>56.369298340982532</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
-        <v>47.248903436854349</v>
+        <v>53.490238512168844</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -1691,99 +1690,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*Scenarios!$B$6</f>
-        <v>52.788273799026918</v>
+        <v>59.761330967803119</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*Scenarios!$B$6</f>
-        <v>48.755521551719276</v>
+        <v>55.195873065541761</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*Scenarios!$B$6</f>
-        <v>47.656709843885459</v>
+        <v>53.951914030375043</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*Scenarios!$B$6</f>
-        <v>43.975124224854611</v>
+        <v>49.784010046569037</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*Scenarios!$B$6</f>
-        <v>44.280979030127945</v>
+        <v>50.130266685223688</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*Scenarios!$B$6</f>
-        <v>48.94809679948397</v>
+        <v>55.413886504694695</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*Scenarios!$B$6</f>
-        <v>61.612751328950083</v>
+        <v>69.75147620898737</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*Scenarios!$B$6</f>
-        <v>64.580675735676493</v>
+        <v>73.111448035932526</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*Scenarios!$B$6</f>
-        <v>67.990390416686594</v>
+        <v>76.971568340934411</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*Scenarios!$B$6</f>
-        <v>66.687675505337211</v>
+        <v>75.496771546664576</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*Scenarios!$B$6</f>
-        <v>65.928702470029322</v>
+        <v>74.637542110003039</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*Scenarios!$B$6</f>
-        <v>66.449788434569072</v>
+        <v>75.227460827710956</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*Scenarios!$B$6</f>
-        <v>63.447880160590074</v>
+        <v>71.829016040915292</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*Scenarios!$B$6</f>
-        <v>62.371724364257986</v>
+        <v>70.61070564564892</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*Scenarios!$B$6</f>
-        <v>62.40570823151058</v>
+        <v>70.649178605499444</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*Scenarios!$B$6</f>
-        <v>63.00608988630637</v>
+        <v>71.328867562858562</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*Scenarios!$B$6</f>
-        <v>63.731079054361679</v>
+        <v>72.149624039669604</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*Scenarios!$B$6</f>
-        <v>64.286148886154024</v>
+        <v>72.778015717228044</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*Scenarios!$B$6</f>
-        <v>67.412664673392527</v>
+        <v>76.317528023475603</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*Scenarios!$B$6</f>
-        <v>67.480632407897716</v>
+        <v>76.394473943176649</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*Scenarios!$B$6</f>
-        <v>64.286148886154024</v>
+        <v>72.778015717228044</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*Scenarios!$B$6</f>
-        <v>59.188568798265159</v>
+        <v>67.007071739650485</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*Scenarios!$B$6</f>
-        <v>53.252719984812344</v>
+        <v>60.28712808576018</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*Scenarios!$B$6</f>
-        <v>49.469182764023721</v>
+        <v>56.003805222402619</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -1937,99 +1936,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Winter'!B2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Winter'!C2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Winter'!D2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Winter'!E2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Winter'!F2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Winter'!G2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Winter'!H2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Winter'!I2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Winter'!J2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Winter'!K2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Winter'!L2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Winter'!M2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Winter'!N2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Winter'!O2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Winter'!P2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Winter'!R2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Winter'!S2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Winter'!T2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Winter'!U2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Winter'!V2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Winter'!W2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Winter'!X2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
-        <v>54.504931093439104</v>
+        <v>61.704749786918804</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -2038,99 +2037,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Winter'!B3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Winter'!C3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Winter'!D3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Winter'!E3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Winter'!F3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Winter'!G3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Winter'!H3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Winter'!I3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Winter'!J3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Winter'!K3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Winter'!L3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Winter'!M3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Winter'!N3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Winter'!O3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Winter'!P3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Winter'!R3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Winter'!S3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Winter'!T3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Winter'!U3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Winter'!V3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Winter'!W3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Winter'!X3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
-        <v>49.843477301958522</v>
+        <v>56.427542127422896</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -2139,99 +2138,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Winter'!B4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Winter'!C4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Winter'!D4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Winter'!E4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Winter'!F4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Winter'!G4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Winter'!H4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Winter'!I4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Winter'!J4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Winter'!K4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Winter'!L4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Winter'!M4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Winter'!N4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Winter'!O4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Winter'!P4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Winter'!R4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Winter'!S4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Winter'!T4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Winter'!U4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Winter'!V4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Winter'!W4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Winter'!X4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
-        <v>59.166384884919708</v>
+        <v>66.981957446414725</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -2385,99 +2384,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*Scenarios!$B$6</f>
-        <v>42.219291083470672</v>
+        <v>47.796240454292324</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*Scenarios!$B$6</f>
-        <v>38.526377508688952</v>
+        <v>43.615512150536134</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*Scenarios!$B$6</f>
-        <v>36.895151880564519</v>
+        <v>41.768810077711322</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*Scenarios!$B$6</f>
-        <v>36.226802491263534</v>
+        <v>41.01217520065115</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*Scenarios!$B$6</f>
-        <v>36.396721827526498</v>
+        <v>41.204539999903737</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*Scenarios!$B$6</f>
-        <v>41.199775065892894</v>
+        <v>46.642051658776808</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*Scenarios!$B$6</f>
-        <v>42.944280251525967</v>
+        <v>48.616996931103344</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*Scenarios!$B$6</f>
-        <v>42.944280251525967</v>
+        <v>48.616996931103344</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*Scenarios!$B$6</f>
-        <v>45.130575711442759</v>
+        <v>51.092090681486617</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*Scenarios!$B$6</f>
-        <v>45.243855268951393</v>
+        <v>51.220333880988335</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*Scenarios!$B$6</f>
-        <v>45.130575711442759</v>
+        <v>51.092090681486617</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*Scenarios!$B$6</f>
-        <v>45.323150959207439</v>
+        <v>51.310104120639544</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*Scenarios!$B$6</f>
-        <v>44.677457481408183</v>
+        <v>50.579117883479718</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*Scenarios!$B$6</f>
-        <v>44.394258587636578</v>
+        <v>50.258509884725406</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*Scenarios!$B$6</f>
-        <v>43.465366216065718</v>
+        <v>49.206915648811275</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*Scenarios!$B$6</f>
-        <v>42.128667437463754</v>
+        <v>47.693645894690938</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*Scenarios!$B$6</f>
-        <v>39.625189216522777</v>
+        <v>44.859471185702851</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*Scenarios!$B$6</f>
-        <v>42.332570640979306</v>
+        <v>47.924483653794042</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*Scenarios!$B$6</f>
-        <v>43.952468313352881</v>
+        <v>49.758361406668683</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*Scenarios!$B$6</f>
-        <v>45.198543445947934</v>
+        <v>51.169036601187642</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*Scenarios!$B$6</f>
-        <v>44.224339251373621</v>
+        <v>50.066145085472826</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*Scenarios!$B$6</f>
-        <v>45.130575711442759</v>
+        <v>51.092090681486617</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*Scenarios!$B$6</f>
-        <v>45.039952065435841</v>
+        <v>50.989496121885232</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*Scenarios!$B$6</f>
-        <v>43.20482323379585</v>
+        <v>48.911956289957317</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -2486,99 +2485,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*Scenarios!$B$6</f>
-        <v>44.949328419428923</v>
+        <v>50.886901562283853</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*Scenarios!$B$6</f>
-        <v>39.647845128024507</v>
+        <v>44.885119825603198</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*Scenarios!$B$6</f>
-        <v>43.272790968301038</v>
+        <v>48.988902209658356</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*Scenarios!$B$6</f>
-        <v>41.80015672068869</v>
+        <v>47.321740616135941</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*Scenarios!$B$6</f>
-        <v>42.604441579000046</v>
+        <v>48.232267332598177</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*Scenarios!$B$6</f>
-        <v>43.272790968301038</v>
+        <v>48.988902209658356</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*Scenarios!$B$6</f>
-        <v>42.151323348965484</v>
+        <v>47.719294534591285</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*Scenarios!$B$6</f>
-        <v>45.515726206972133</v>
+        <v>51.52811755979247</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*Scenarios!$B$6</f>
-        <v>48.528962436702002</v>
+        <v>54.939386666538319</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*Scenarios!$B$6</f>
-        <v>48.744193595968419</v>
+        <v>55.183048745591591</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*Scenarios!$B$6</f>
-        <v>49.21996773750471</v>
+        <v>55.72167018349883</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*Scenarios!$B$6</f>
-        <v>50.148860109075571</v>
+        <v>56.773264419412968</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*Scenarios!$B$6</f>
-        <v>50.941817011636061</v>
+        <v>57.67096681592502</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*Scenarios!$B$6</f>
-        <v>52.267187834487167</v>
+        <v>59.171412250095187</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*Scenarios!$B$6</f>
-        <v>50.284795578085941</v>
+        <v>56.927156258815032</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*Scenarios!$B$6</f>
-        <v>48.721537684466682</v>
+        <v>55.157400105691245</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*Scenarios!$B$6</f>
-        <v>48.551618348203725</v>
+        <v>54.965035306438658</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*Scenarios!$B$6</f>
-        <v>49.537150498528902</v>
+        <v>56.080751142103651</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*Scenarios!$B$6</f>
-        <v>49.809021436549642</v>
+        <v>56.388534820907786</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*Scenarios!$B$6</f>
-        <v>50.862521321380008</v>
+        <v>57.581196576273818</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*Scenarios!$B$6</f>
-        <v>51.485558887677541</v>
+        <v>58.286534173533298</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*Scenarios!$B$6</f>
-        <v>52.278515790238025</v>
+        <v>59.184236570045357</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*Scenarios!$B$6</f>
-        <v>50.941817011636061</v>
+        <v>57.67096681592502</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*Scenarios!$B$6</f>
-        <v>48.143811941172615</v>
+        <v>54.503359788232459</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -2587,99 +2586,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*Scenarios!$B$6</f>
-        <v>37.82404425213538</v>
+        <v>42.820404313625453</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*Scenarios!$B$6</f>
-        <v>34.912759624163293</v>
+        <v>39.524554086431159</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*Scenarios!$B$6</f>
-        <v>32.726464164246515</v>
+        <v>37.0494603360479</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*Scenarios!$B$6</f>
-        <v>32.205378199706765</v>
+        <v>36.459541618339969</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*Scenarios!$B$6</f>
-        <v>33.315517863291447</v>
+        <v>37.716324973456857</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*Scenarios!$B$6</f>
-        <v>38.956839827221792</v>
+        <v>44.102836308642686</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*Scenarios!$B$6</f>
-        <v>51.247671816909396</v>
+        <v>58.017223454579678</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*Scenarios!$B$6</f>
-        <v>48.619586082708913</v>
+        <v>55.041981226139697</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*Scenarios!$B$6</f>
-        <v>50.839865409878286</v>
+        <v>57.555547936373479</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*Scenarios!$B$6</f>
-        <v>50.182843976328158</v>
+        <v>56.811737379263477</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*Scenarios!$B$6</f>
-        <v>46.512586313048182</v>
+        <v>52.65665771540764</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*Scenarios!$B$6</f>
-        <v>45.198543445947934</v>
+        <v>51.169036601187642</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*Scenarios!$B$6</f>
-        <v>50.046908507317795</v>
+        <v>56.657845539861412</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*Scenarios!$B$6</f>
-        <v>51.179704082404207</v>
+        <v>57.940277534878646</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*Scenarios!$B$6</f>
-        <v>50.839865409878286</v>
+        <v>57.555547936373479</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*Scenarios!$B$6</f>
-        <v>50.239483755082482</v>
+        <v>56.875858979014339</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*Scenarios!$B$6</f>
-        <v>50.239483755082482</v>
+        <v>56.875858979014339</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*Scenarios!$B$6</f>
-        <v>50.839865409878286</v>
+        <v>57.555547936373479</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*Scenarios!$B$6</f>
-        <v>52.312499657490619</v>
+        <v>59.22270952989588</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*Scenarios!$B$6</f>
-        <v>54.238252135137529</v>
+        <v>61.40284392142518</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*Scenarios!$B$6</f>
-        <v>57.976477532922694</v>
+        <v>65.634869504982049</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*Scenarios!$B$6</f>
-        <v>63.085385576562423</v>
+        <v>71.418637802509778</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*Scenarios!$B$6</f>
-        <v>57.512031347137267</v>
+        <v>65.10907238702498</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*Scenarios!$B$6</f>
-        <v>50.975800878888649</v>
+        <v>57.709439775775543</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -2833,99 +2832,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Summer'!B2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Summer'!C2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Summer'!D2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Summer'!E2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Summer'!F2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Summer'!G2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Summer'!H2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Summer'!I2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Summer'!J2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Summer'!K2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Summer'!L2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Summer'!M2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Summer'!N2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Summer'!O2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Summer'!P2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Summer'!R2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Summer'!S2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Summer'!T2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Summer'!U2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Summer'!V2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Summer'!W2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Summer'!X2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
-        <v>42.564793733872023</v>
+        <v>48.187382212772569</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -2934,99 +2933,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Summer'!B3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Summer'!C3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Summer'!D3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Summer'!E3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Summer'!F3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Summer'!G3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Summer'!H3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Summer'!I3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Summer'!J3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Summer'!K3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Summer'!L3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Summer'!M3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Summer'!N3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Summer'!O3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Summer'!P3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Summer'!R3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Summer'!S3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Summer'!T3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Summer'!U3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Summer'!V3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Summer'!W3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Summer'!X3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
-        <v>47.653405856791451</v>
+        <v>53.948173603722907</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -3035,99 +3034,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Summer'!B4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Summer'!C4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Summer'!D4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Summer'!E4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Summer'!F4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Summer'!G4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Summer'!H4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Summer'!I4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Summer'!J4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Summer'!K4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Summer'!L4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Summer'!M4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Summer'!N4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Summer'!O4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Summer'!P4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Summer'!R4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Summer'!S4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Summer'!T4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Summer'!U4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Summer'!V4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Summer'!W4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Summer'!X4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
-        <v>47.584494125973691</v>
+        <v>53.870158990692687</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
